--- a/medicine/Enfance/Syros_(maison_d'édition)/Syros_(maison_d'édition).xlsx
+++ b/medicine/Enfance/Syros_(maison_d'édition)/Syros_(maison_d'édition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syros_(maison_d%27%C3%A9dition)</t>
+          <t>Syros_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Syros est une marque d'édition française, spécialisée dans les livres pour enfants, qui se veut tournée vers d'autres cultures et la promotion de l'engagement social.
-La marque Syros est la propriété de la Librairie Fernand Nathan[1]. Elle est exploitée par Sejer[2] et fait partie du groupe d'édition français Editis.
+La marque Syros est la propriété de la Librairie Fernand Nathan. Elle est exploitée par Sejer et fait partie du groupe d'édition français Editis.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syros_(maison_d%27%C3%A9dition)</t>
+          <t>Syros_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison d'édition indépendante Syros est créée en 1972 par le PSU (Parti Socialiste Unifié). Elle est alors dirigée par Guy Degorce[3].
-En 1995, les éditions Syros fusionnent avec La Découverte alors dirigée par François Gèze. Ils intègrent ensemble en 1998 le groupe Havas, aujourd'hui connu sous le nom d'Editis[3]. 
-En 1984, un secteur spécialisé en livres jeunesse est créé. En 2002, le département « Essais » de la maison intègre le catalogue des éditions La Découverte et le département de livres jeunesse rejoint Nathan Jeunesse tout en conservant le nom de marque Syros[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison d'édition indépendante Syros est créée en 1972 par le PSU (Parti Socialiste Unifié). Elle est alors dirigée par Guy Degorce.
+En 1995, les éditions Syros fusionnent avec La Découverte alors dirigée par François Gèze. Ils intègrent ensemble en 1998 le groupe Havas, aujourd'hui connu sous le nom d'Editis. 
+En 1984, un secteur spécialisé en livres jeunesse est créé. En 2002, le département « Essais » de la maison intègre le catalogue des éditions La Découverte et le département de livres jeunesse rejoint Nathan Jeunesse tout en conservant le nom de marque Syros,.
 </t>
         </is>
       </c>
